--- a/backend/output/inventory.xlsx
+++ b/backend/output/inventory.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,90 +434,58 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Item#</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Item Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Brand</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Pack Size</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ordered</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Confirmed Status</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Delivery Date:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-10-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Invoice Total:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Delivery Date:</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-10-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Invoice Total:</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Delivery Date: 2024-10-12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Invoice Total: 500</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output/inventory.xlsx
+++ b/backend/output/inventory.xlsx
@@ -1,40 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25000" windowHeight="10000" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Inventory" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Item#</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Pack Size</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Ordered</t>
+  </si>
+  <si>
+    <t>Confirmed Status</t>
+  </si>
+  <si>
+    <t>Delivery Date: 2024-10-12</t>
+  </si>
+  <si>
+    <t>Invoice Total: 500</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="2">
@@ -50,89 +84,31 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,74 +396,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Item#</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Item Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Brand</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pack Size</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ordered</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Confirmed Status</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Delivery Date: 2024-10-12</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Invoice Total: 500</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
 </file>